--- a/source/_drafts/hutui/互推记录.xlsx
+++ b/source/_drafts/hutui/互推记录.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36840" windowHeight="23540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="18400" windowHeight="23540"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>Python 那些事</t>
     <rPh sb="0" eb="3">
@@ -134,14 +134,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号</t>
     <rPh sb="0" eb="2">
       <t>zhang'hao</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java一日一条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">机器学习算法全栈工程师 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,19 +516,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -535,10 +539,10 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -548,11 +552,8 @@
       <c r="C2" s="1">
         <v>43178</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -562,11 +563,8 @@
       <c r="C3" s="1">
         <v>43178</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -576,11 +574,8 @@
       <c r="C4" s="1">
         <v>43178</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -590,11 +585,8 @@
       <c r="C5" s="1">
         <v>43178</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -604,11 +596,8 @@
       <c r="C6" s="1">
         <v>43178</v>
       </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -619,7 +608,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -629,21 +618,24 @@
       <c r="C8" s="1">
         <v>43178</v>
       </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
       <c r="C9" s="1">
         <v>43178</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="1">
         <v>43178</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -654,7 +646,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -665,7 +657,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -676,7 +668,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -687,7 +679,7 @@
         <v>43171</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -701,7 +693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>

--- a/source/_drafts/hutui/互推记录.xlsx
+++ b/source/_drafts/hutui/互推记录.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Python 那些事</t>
     <rPh sb="0" eb="3">
@@ -146,6 +149,28 @@
   </si>
   <si>
     <t xml:space="preserve">机器学习算法全栈工程师 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>码农有道</t>
+    <rPh sb="0" eb="2">
+      <t>ma'nong</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器学习与自然语言处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序猿DD</t>
+    <rPh sb="0" eb="3">
+      <t>cheng'xu'yuan</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -516,16 +541,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -543,14 +570,14 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>28000</v>
+      <c r="A2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="C2" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -561,86 +588,104 @@
         <v>28000</v>
       </c>
       <c r="C3" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>20000</v>
+        <v>60000</v>
       </c>
       <c r="C4" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>40000</v>
+        <v>28000</v>
       </c>
       <c r="C5" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>45000</v>
+      <c r="A6" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>31000</v>
+        <v>30000</v>
       </c>
       <c r="C7" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>26000</v>
+        <v>40000</v>
       </c>
       <c r="C8" s="1">
-        <v>43178</v>
+        <v>43185</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>27000</v>
       </c>
       <c r="C9" s="1">
-        <v>43178</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
-        <v>43178</v>
+        <v>43185</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="C11" s="1">
         <v>43178</v>
@@ -648,68 +693,56 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>60000</v>
+        <v>45000</v>
       </c>
       <c r="C12" s="1">
-        <v>43171</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13">
-        <v>27000</v>
+        <v>31000</v>
       </c>
       <c r="C13" s="1">
-        <v>43171</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>16000</v>
+        <v>26000</v>
       </c>
       <c r="C14" s="1">
-        <v>43171</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>31000</v>
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="1">
-        <v>43171</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>38000</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1">
-        <v>43171</v>
-      </c>
-      <c r="D16" t="s">
-        <v>17</v>
+        <v>43178</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>13</v>
       </c>
       <c r="B17">
         <v>16000</v>
@@ -717,11 +750,55 @@
       <c r="C17" s="1">
         <v>43171</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>31000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D18" t="s">
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>38000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20">
+        <v>16000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>43171</v>
+      </c>
+      <c r="D20" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E20">
+      <sortCondition descending="1" ref="E1:E20"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
